--- a/data/uac_audio_config.xlsx
+++ b/data/uac_audio_config.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donert/Documents/UACTech/SystemDocumentation/github/uactechdoc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B45ED31-6116-F845-9131-CD05F9516A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCCDE7C-890C-5044-9285-FE7B92DB21DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{C6DAFA3B-D3DD-0B4C-98F6-8BDAEB6918C5}"/>
+    <workbookView xWindow="380" yWindow="760" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{C6DAFA3B-D3DD-0B4C-98F6-8BDAEB6918C5}"/>
   </bookViews>
   <sheets>
     <sheet name="ConsoleInputs" sheetId="1" r:id="rId1"/>
     <sheet name="ConsoleOutputs" sheetId="4" r:id="rId2"/>
     <sheet name="DanteDevices" sheetId="2" r:id="rId3"/>
     <sheet name="DantePatch" sheetId="3" r:id="rId4"/>
+    <sheet name="dante_outputs" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="223">
   <si>
     <t>Channel</t>
   </si>
@@ -600,13 +601,118 @@
   </si>
   <si>
     <t>Room Mic</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Direct Out</t>
+  </si>
+  <si>
+    <t>Mx 11</t>
+  </si>
+  <si>
+    <t>Mx 12</t>
+  </si>
+  <si>
+    <t>Mx 15</t>
+  </si>
+  <si>
+    <t>Mx 13</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Mx 14</t>
+  </si>
+  <si>
+    <t>ST L</t>
+  </si>
+  <si>
+    <t>Kick</t>
+  </si>
+  <si>
+    <t>Snare</t>
+  </si>
+  <si>
+    <t>3,4,5,6</t>
+  </si>
+  <si>
+    <t>7,8,9</t>
+  </si>
+  <si>
+    <t>19, 20</t>
+  </si>
+  <si>
+    <t>46,47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toms </t>
+  </si>
+  <si>
+    <t>Cymbals &amp; HiHat</t>
+  </si>
+  <si>
+    <t>B3 Lo &amp; Hi</t>
+  </si>
+  <si>
+    <t>Room Mics</t>
+  </si>
+  <si>
+    <t>Get out of trouble</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Slot 2</t>
+  </si>
+  <si>
+    <t>Card Channel</t>
+  </si>
+  <si>
+    <t>Related Inputs</t>
+  </si>
+  <si>
+    <t>Piano Lo</t>
+  </si>
+  <si>
+    <t>Piano Hi</t>
+  </si>
+  <si>
+    <t>Synth</t>
+  </si>
+  <si>
+    <t>Bass</t>
+  </si>
+  <si>
+    <t>Electric Guitar</t>
+  </si>
+  <si>
+    <t>Acoustic Guitar</t>
+  </si>
+  <si>
+    <t>Recording - Get out of trouble</t>
+  </si>
+  <si>
+    <t>Plate Reverb</t>
+  </si>
+  <si>
+    <t>Hall Reverb</t>
+  </si>
+  <si>
+    <t>? Chorus</t>
+  </si>
+  <si>
+    <t>? Delay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -626,6 +732,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -648,14 +767,119 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -691,13 +915,28 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2311C7CC-3CAB-D248-BDEA-A3EE7A3D8D2D}" name="Table1" displayName="Table1" ref="A1:G69" totalsRowShown="0">
   <autoFilter ref="A1:G69" xr:uid="{2311C7CC-3CAB-D248-BDEA-A3EE7A3D8D2D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DBB20B09-FB33-6247-AD08-E97214AF1637}" name="Device" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DBB20B09-FB33-6247-AD08-E97214AF1637}" name="Device" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{88D57E0E-91FD-7D4F-89A1-2264885642B2}" name="Channel"/>
     <tableColumn id="3" xr3:uid="{9E11E5CF-4755-1943-8DAE-DE6526F4BA0B}" name="Usage"/>
     <tableColumn id="4" xr3:uid="{583EBD09-A311-8549-AD99-0519A1BA7038}" name="Type"/>
     <tableColumn id="5" xr3:uid="{C9B4D055-79B5-494D-949B-C43A29E6D2DC}" name="Notes"/>
     <tableColumn id="6" xr3:uid="{A7D4FDBC-3575-C746-8DC3-53BAE4D0A25D}" name="NetworkDevice"/>
     <tableColumn id="7" xr3:uid="{2A4ACB68-E6F0-CB46-964E-A095BFCBF5D4}" name="NetworkDeviceChannel"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4F1912FF-9B7B-DD40-A31B-6AFC18D6A66C}" name="Table3" displayName="Table3" ref="A1:F17" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F17" xr:uid="{4F1912FF-9B7B-DD40-A31B-6AFC18D6A66C}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{4E358B1B-8ADB-D74E-A54A-769E22787376}" name="Device" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{B6EC83A2-1A27-5146-9741-FBC9BBA84F41}" name="Card"/>
+    <tableColumn id="3" xr3:uid="{52135101-6543-8D46-A88B-254E00FCBC19}" name="Card Channel" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{138F406F-59C6-264F-90AE-F2674B19C317}" name="Source" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{FB840414-1864-B946-BDC0-DA99FA659BDD}" name="Related Inputs" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{DEA866AD-3B1E-3E46-A00A-B618F26B8C2E}" name="Usage" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1002,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80680B19-9D5E-1A4F-8FAD-F0E3B8499461}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
@@ -2284,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4C5A61-7CDD-5C42-B217-B8E89E241867}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2411,6 +2650,9 @@
       <c r="B8" t="s">
         <v>162</v>
       </c>
+      <c r="D8" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -2419,6 +2661,9 @@
       <c r="B9" t="s">
         <v>163</v>
       </c>
+      <c r="D9" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -2427,6 +2672,9 @@
       <c r="B10" t="s">
         <v>164</v>
       </c>
+      <c r="D10" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -2434,6 +2682,9 @@
       </c>
       <c r="B11" t="s">
         <v>165</v>
+      </c>
+      <c r="D11" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2766,8 +3017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C420E2D7-0541-2D43-B6B6-B7173797BCCE}">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5219,4 +5470,386 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24D4A93-D0E2-2949-A61E-1679DC88B601}">
+  <dimension ref="A1:Y17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="F10:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="6">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="5">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="6">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="5">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="6">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="5">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="5">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="5">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="6">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="5">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="6">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="5">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="6">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="5">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="5">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="5">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/data/uac_audio_config.xlsx
+++ b/data/uac_audio_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donert/Documents/UACTech/SystemDocumentation/github/uactechdoc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCCDE7C-890C-5044-9285-FE7B92DB21DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43968FDD-09AD-3E42-A2F6-E27D18809781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="760" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{C6DAFA3B-D3DD-0B4C-98F6-8BDAEB6918C5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="222">
   <si>
     <t>Channel</t>
   </si>
@@ -702,10 +702,7 @@
     <t>Hall Reverb</t>
   </si>
   <si>
-    <t>? Chorus</t>
-  </si>
-  <si>
-    <t>? Delay</t>
+    <t>Delay</t>
   </si>
 </sst>
 </file>
@@ -2524,7 +2521,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2684,7 +2681,7 @@
         <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">

--- a/data/uac_audio_config.xlsx
+++ b/data/uac_audio_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donert/Documents/UACTech/SystemDocumentation/github/uactechdoc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43968FDD-09AD-3E42-A2F6-E27D18809781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2279D21-1F5D-9D40-8240-03E23664585A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="760" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{C6DAFA3B-D3DD-0B4C-98F6-8BDAEB6918C5}"/>
+    <workbookView xWindow="-72900" yWindow="-28040" windowWidth="47680" windowHeight="33300" activeTab="2" xr2:uid="{C6DAFA3B-D3DD-0B4C-98F6-8BDAEB6918C5}"/>
   </bookViews>
   <sheets>
     <sheet name="ConsoleInputs" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="DantePatch" sheetId="3" r:id="rId4"/>
     <sheet name="dante_outputs" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +30,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="274">
   <si>
     <t>Channel</t>
   </si>
@@ -384,39 +387,6 @@
     <t>In</t>
   </si>
   <si>
-    <t>Direct Out HH01</t>
-  </si>
-  <si>
-    <t>Direct Out HH02</t>
-  </si>
-  <si>
-    <t>Direct Out HH03</t>
-  </si>
-  <si>
-    <t>Direct Out HH04</t>
-  </si>
-  <si>
-    <t>Direct Out HH05</t>
-  </si>
-  <si>
-    <t>Direct Out HH06</t>
-  </si>
-  <si>
-    <t>Direct Out HH07</t>
-  </si>
-  <si>
-    <t>Direct Out HH08</t>
-  </si>
-  <si>
-    <t>Direct Out HH09</t>
-  </si>
-  <si>
-    <t>Direct Out HH10</t>
-  </si>
-  <si>
-    <t>Mix Bus</t>
-  </si>
-  <si>
     <t>House</t>
   </si>
   <si>
@@ -447,9 +417,6 @@
     <t>ZAIU-B002</t>
   </si>
   <si>
-    <t>slot2</t>
-  </si>
-  <si>
     <t>Beta87a</t>
   </si>
   <si>
@@ -561,12 +528,6 @@
     <t>Slot</t>
   </si>
   <si>
-    <t>Drum Submix</t>
-  </si>
-  <si>
-    <t>Bass Submix</t>
-  </si>
-  <si>
     <t>ch 33 Insert Out</t>
   </si>
   <si>
@@ -597,9 +558,6 @@
     <t>ch 48 Insert Out</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Room Mic</t>
   </si>
   <si>
@@ -703,13 +661,214 @@
   </si>
   <si>
     <t>Delay</t>
+  </si>
+  <si>
+    <t>ZAIU-B003</t>
+  </si>
+  <si>
+    <t>HH11</t>
+  </si>
+  <si>
+    <t>HH12</t>
+  </si>
+  <si>
+    <t>Vox HH11</t>
+  </si>
+  <si>
+    <t>Vox HH12</t>
+  </si>
+  <si>
+    <t>Vox BP06</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
+    <t>OutputType</t>
+  </si>
+  <si>
+    <t>analog</t>
+  </si>
+  <si>
+    <t>dante</t>
+  </si>
+  <si>
+    <t>Drum mix</t>
+  </si>
+  <si>
+    <t>Bass mix</t>
+  </si>
+  <si>
+    <t>Room Mic mix</t>
+  </si>
+  <si>
+    <t>Record mix</t>
+  </si>
+  <si>
+    <t>B3 mix</t>
+  </si>
+  <si>
+    <t>House mix</t>
+  </si>
+  <si>
+    <t>CUMU-E001</t>
+  </si>
+  <si>
+    <t>Stream L</t>
+  </si>
+  <si>
+    <t>Stream R</t>
+  </si>
+  <si>
+    <t>RefMon L</t>
+  </si>
+  <si>
+    <t>RefMon R</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Dr Toms mix</t>
+  </si>
+  <si>
+    <t>Dr Metal mix</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Kick Direct Out</t>
+  </si>
+  <si>
+    <t>Snare Direct Out</t>
+  </si>
+  <si>
+    <t>Dr Toms</t>
+  </si>
+  <si>
+    <t>Dr metal</t>
+  </si>
+  <si>
+    <t>spare</t>
+  </si>
+  <si>
+    <t>Bass Direct Out</t>
+  </si>
+  <si>
+    <t>Eg</t>
+  </si>
+  <si>
+    <t>Eg Direct Out</t>
+  </si>
+  <si>
+    <t>Ag</t>
+  </si>
+  <si>
+    <t>Ag Direct Out</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>Pn Lo</t>
+  </si>
+  <si>
+    <t>Piano Low Direct Out</t>
+  </si>
+  <si>
+    <t>Pn Hi</t>
+  </si>
+  <si>
+    <t>Piano High Direct Out</t>
+  </si>
+  <si>
+    <t>Sz</t>
+  </si>
+  <si>
+    <t>Synth Direct Out</t>
+  </si>
+  <si>
+    <t>BP06 (Ken)</t>
+  </si>
+  <si>
+    <t>Reference Monitor L</t>
+  </si>
+  <si>
+    <t>Reference Monitor R</t>
+  </si>
+  <si>
+    <t>Video Mixer L</t>
+  </si>
+  <si>
+    <t>Video Mixer R</t>
+  </si>
+  <si>
+    <t>RM L</t>
+  </si>
+  <si>
+    <t>RM R</t>
+  </si>
+  <si>
+    <t>VM L</t>
+  </si>
+  <si>
+    <t>VM R</t>
+  </si>
+  <si>
+    <t>2308-1124</t>
+  </si>
+  <si>
+    <t>ZAIU-E002</t>
+  </si>
+  <si>
+    <t>BP04 / HH11</t>
+  </si>
+  <si>
+    <t>BP05 / HH12</t>
+  </si>
+  <si>
+    <t>Omni Lav / Beta87a</t>
+  </si>
+  <si>
+    <t>Omni Lav / Ken HS</t>
+  </si>
+  <si>
+    <t>Stream Left</t>
+  </si>
+  <si>
+    <t>Steam R</t>
+  </si>
+  <si>
+    <t>Stream Right</t>
+  </si>
+  <si>
+    <t>Mon L</t>
+  </si>
+  <si>
+    <t>Monitor L</t>
+  </si>
+  <si>
+    <t>Mon R</t>
+  </si>
+  <si>
+    <t>Monitor R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -743,16 +902,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -760,11 +932,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -778,14 +983,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="12">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -794,11 +1006,68 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
@@ -879,6 +1148,24 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -912,7 +1199,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2311C7CC-3CAB-D248-BDEA-A3EE7A3D8D2D}" name="Table1" displayName="Table1" ref="A1:G69" totalsRowShown="0">
   <autoFilter ref="A1:G69" xr:uid="{2311C7CC-3CAB-D248-BDEA-A3EE7A3D8D2D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DBB20B09-FB33-6247-AD08-E97214AF1637}" name="Device" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{DBB20B09-FB33-6247-AD08-E97214AF1637}" name="Device" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{88D57E0E-91FD-7D4F-89A1-2264885642B2}" name="Channel"/>
     <tableColumn id="3" xr3:uid="{9E11E5CF-4755-1943-8DAE-DE6526F4BA0B}" name="Usage"/>
     <tableColumn id="4" xr3:uid="{583EBD09-A311-8549-AD99-0519A1BA7038}" name="Type"/>
@@ -925,15 +1212,50 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4F1912FF-9B7B-DD40-A31B-6AFC18D6A66C}" name="Table3" displayName="Table3" ref="A1:F17" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1765E8B9-222B-B446-9BF3-DEB443021D72}" name="Table2" displayName="Table2" ref="A1:H33" totalsRowShown="0">
+  <autoFilter ref="A1:H33" xr:uid="{1765E8B9-222B-B446-9BF3-DEB443021D72}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{9EDC3475-3A92-D44A-975D-D24A46894B36}" name="Device" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{0BC25048-D076-B747-A580-B06384E0734E}" name="OutputType" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{83A4B198-2B6D-7B4A-902F-927F8B9185BE}" name="Output" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{BAE3D02E-A444-D548-A15E-B6D66C01F6ED}" name="Label"/>
+    <tableColumn id="5" xr3:uid="{D96C6764-0724-E443-8AE6-A2E45C90F9DF}" name="Usage">
+      <calculatedColumnFormula>D2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{153EC7B0-5CB8-E94E-82DA-2B29BE73E8EC}" name="Slot"/>
+    <tableColumn id="7" xr3:uid="{93ADA22B-EB5C-D545-9D5C-27754407FE07}" name="NetworkDeviceOut"/>
+    <tableColumn id="8" xr3:uid="{E9C29EFE-258E-4B46-B379-7AF4A5A12C07}" name="NetworkDeviceChannelOut"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{83E74022-6F6B-1045-B8C5-B98B3D21E9BD}" name="Table4" displayName="Table4" ref="A1:G145" totalsRowShown="0">
+  <autoFilter ref="A1:G145" xr:uid="{83E74022-6F6B-1045-B8C5-B98B3D21E9BD}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{E602AD31-C3D3-FD43-8372-B5858DBF28D9}" name="Device" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{B02630D7-D7C3-E441-9182-A59F371F65DE}" name="NetworkDevice" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{2E2A113B-B3DA-6B4E-91A4-24182F327EB9}" name="NetworkDeviceChannel"/>
+    <tableColumn id="4" xr3:uid="{3DC344F6-23E3-D54C-9E87-5780E47CCA37}" name="InOut"/>
+    <tableColumn id="7" xr3:uid="{D2023134-14D1-204E-8572-D20AE5BB355A}" name="Used"/>
+    <tableColumn id="5" xr3:uid="{E3E37727-A5BA-2646-B1EA-018378FA4754}" name="Label"/>
+    <tableColumn id="6" xr3:uid="{7779A5DE-B803-EB45-81AA-580D295F0233}" name="Usage"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4F1912FF-9B7B-DD40-A31B-6AFC18D6A66C}" name="Table3" displayName="Table3" ref="A1:F17" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:F17" xr:uid="{4F1912FF-9B7B-DD40-A31B-6AFC18D6A66C}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{4E358B1B-8ADB-D74E-A54A-769E22787376}" name="Device" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{4E358B1B-8ADB-D74E-A54A-769E22787376}" name="Device" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{B6EC83A2-1A27-5146-9741-FBC9BBA84F41}" name="Card"/>
-    <tableColumn id="3" xr3:uid="{52135101-6543-8D46-A88B-254E00FCBC19}" name="Card Channel" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{138F406F-59C6-264F-90AE-F2674B19C317}" name="Source" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{FB840414-1864-B946-BDC0-DA99FA659BDD}" name="Related Inputs" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{DEA866AD-3B1E-3E46-A00A-B618F26B8C2E}" name="Usage" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{52135101-6543-8D46-A88B-254E00FCBC19}" name="Card Channel" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{138F406F-59C6-264F-90AE-F2674B19C317}" name="Source" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{FB840414-1864-B946-BDC0-DA99FA659BDD}" name="Related Inputs" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{DEA866AD-3B1E-3E46-A00A-B618F26B8C2E}" name="Usage" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1238,9 +1560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80680B19-9D5E-1A4F-8FAD-F0E3B8499461}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1274,7 +1596,7 @@
         <v>90</v>
       </c>
       <c r="G1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1829,10 +2151,10 @@
         <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F34" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1852,10 +2174,10 @@
         <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -1875,10 +2197,10 @@
         <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F36" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -1898,10 +2220,10 @@
         <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F37" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -1921,13 +2243,13 @@
         <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F38" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1944,13 +2266,13 @@
         <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F39" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G39">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1967,13 +2289,13 @@
         <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F40" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G40">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1990,13 +2312,13 @@
         <v>21</v>
       </c>
       <c r="E41" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F41" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G41">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2007,10 +2329,19 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" t="s">
+        <v>124</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -2021,10 +2352,19 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" t="s">
+        <v>124</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -2035,10 +2375,19 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" t="s">
+        <v>207</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2049,13 +2398,19 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>211</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>187</v>
+        <v>122</v>
+      </c>
+      <c r="F45" t="s">
+        <v>207</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2066,10 +2421,19 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>213</v>
+      </c>
+      <c r="E46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46" t="s">
+        <v>207</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -2086,7 +2450,7 @@
         <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -2097,19 +2461,13 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>133</v>
-      </c>
-      <c r="F48" t="s">
-        <v>134</v>
-      </c>
-      <c r="G48">
-        <v>9</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -2120,19 +2478,13 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>133</v>
-      </c>
-      <c r="F49" t="s">
-        <v>134</v>
-      </c>
-      <c r="G49">
-        <v>10</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -2214,13 +2566,13 @@
         <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F54" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -2237,13 +2589,13 @@
         <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F55" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -2260,13 +2612,13 @@
         <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F56" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -2283,13 +2635,13 @@
         <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F57" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="G57">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -2306,13 +2658,13 @@
         <v>17</v>
       </c>
       <c r="E58" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F58" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="G58">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -2329,13 +2681,13 @@
         <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F59" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="G59">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -2518,19 +2870,706 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4C5A61-7CDD-5C42-B217-B8E89E241867}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" t="s">
+        <v>222</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>224</v>
+      </c>
+      <c r="E28" t="str">
+        <f>D28</f>
+        <v>Stream L</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C29" s="9">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" ref="E29:E33" si="0">D29</f>
+        <v>Stream R</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30" s="9">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>226</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>RefMon L</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="9">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>227</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>RefMon R</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>228</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>Left</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" s="9">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>229</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>Right</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C420E2D7-0541-2D43-B6B6-B7173797BCCE}">
+  <dimension ref="A1:G145"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2538,2465 +3577,2993 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" t="s">
         <v>92</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" t="s">
+        <v>233</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" t="s">
         <v>130</v>
       </c>
-      <c r="G1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E12">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="F12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" t="s">
-        <v>186</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" t="s">
+        <v>233</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
-      </c>
-      <c r="G15">
-        <v>14</v>
+        <v>263</v>
+      </c>
+      <c r="G15" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
+      <c r="A16" t="s">
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
+        <v>96</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" t="s">
+        <v>233</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G16">
-        <v>15</v>
+        <v>264</v>
+      </c>
+      <c r="G16" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
+      <c r="A17" t="s">
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
+        <v>96</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" t="s">
+        <v>233</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17">
-        <v>16</v>
+        <v>113</v>
+      </c>
+      <c r="G17" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" t="s">
-        <v>176</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" t="s">
+        <v>233</v>
+      </c>
+      <c r="F18" t="s">
         <v>98</v>
       </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
+      <c r="G18" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F19" t="s">
         <v>99</v>
       </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
+      <c r="G19" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" t="s">
-        <v>178</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" t="s">
+        <v>233</v>
+      </c>
+      <c r="F20" t="s">
         <v>100</v>
       </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
+      <c r="G20" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
-        <v>179</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F21" t="s">
         <v>101</v>
       </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21">
-        <v>4</v>
+      <c r="G21" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" t="s">
+        <v>233</v>
+      </c>
+      <c r="F22" t="s">
         <v>102</v>
       </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22">
-        <v>5</v>
+      <c r="G22" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B23" t="s">
-        <v>181</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" t="s">
         <v>103</v>
       </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23">
-        <v>6</v>
+      <c r="G23" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B24" t="s">
-        <v>182</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" t="s">
+        <v>233</v>
+      </c>
+      <c r="F24" t="s">
         <v>104</v>
       </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24">
-        <v>7</v>
+      <c r="G24" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B25" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" t="s">
+        <v>233</v>
+      </c>
+      <c r="F25" t="s">
         <v>105</v>
       </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25">
-        <v>8</v>
+      <c r="G25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B26" t="s">
-        <v>184</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" t="s">
+        <v>233</v>
+      </c>
+      <c r="F26" t="s">
         <v>106</v>
       </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26">
-        <v>9</v>
+      <c r="G26" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B27" t="s">
-        <v>185</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" t="s">
+        <v>233</v>
+      </c>
+      <c r="F27" t="s">
         <v>107</v>
       </c>
-      <c r="E27">
+      <c r="G27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" t="s">
+        <v>233</v>
+      </c>
+      <c r="F28" t="s">
+        <v>208</v>
+      </c>
+      <c r="G28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" t="s">
+        <v>233</v>
+      </c>
+      <c r="F29" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" t="s">
+        <v>233</v>
+      </c>
+      <c r="F30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" t="s">
+        <v>234</v>
+      </c>
+      <c r="G31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" t="s">
+        <v>234</v>
+      </c>
+      <c r="G32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" t="s">
+        <v>182</v>
+      </c>
+      <c r="G34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35">
         <v>2</v>
       </c>
-      <c r="F27" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27">
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" t="s">
+        <v>233</v>
+      </c>
+      <c r="F35" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" t="s">
+        <v>233</v>
+      </c>
+      <c r="F36" t="s">
+        <v>237</v>
+      </c>
+      <c r="G36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" t="s">
+        <v>233</v>
+      </c>
+      <c r="F37" t="s">
+        <v>238</v>
+      </c>
+      <c r="G37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" t="s">
+        <v>233</v>
+      </c>
+      <c r="F38" t="s">
+        <v>239</v>
+      </c>
+      <c r="G38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" t="s">
+        <v>233</v>
+      </c>
+      <c r="F39" t="s">
+        <v>200</v>
+      </c>
+      <c r="G39" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" t="s">
+        <v>233</v>
+      </c>
+      <c r="F40" t="s">
+        <v>241</v>
+      </c>
+      <c r="G40" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" t="s">
+        <v>233</v>
+      </c>
+      <c r="F41" t="s">
+        <v>243</v>
+      </c>
+      <c r="G41" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" t="s">
+        <v>233</v>
+      </c>
+      <c r="F42" t="s">
+        <v>245</v>
+      </c>
+      <c r="G42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43">
         <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" t="s">
+        <v>233</v>
+      </c>
+      <c r="F43" t="s">
+        <v>239</v>
+      </c>
+      <c r="G43" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" t="s">
+        <v>233</v>
+      </c>
+      <c r="F44" t="s">
+        <v>246</v>
+      </c>
+      <c r="G44" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" t="s">
+        <v>233</v>
+      </c>
+      <c r="F45" t="s">
+        <v>248</v>
+      </c>
+      <c r="G45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" t="s">
+        <v>233</v>
+      </c>
+      <c r="F46" t="s">
+        <v>250</v>
+      </c>
+      <c r="G46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" t="s">
+        <v>233</v>
+      </c>
+      <c r="F47" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" t="s">
+        <v>233</v>
+      </c>
+      <c r="F48" t="s">
+        <v>160</v>
+      </c>
+      <c r="G48" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" t="s">
+        <v>233</v>
+      </c>
+      <c r="F49" t="s">
+        <v>115</v>
+      </c>
+      <c r="G49" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" t="s">
+        <v>233</v>
+      </c>
+      <c r="F52" t="s">
+        <v>228</v>
+      </c>
+      <c r="G52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" t="s">
+        <v>233</v>
+      </c>
+      <c r="F53" t="s">
+        <v>229</v>
+      </c>
+      <c r="G53" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" t="s">
+        <v>234</v>
+      </c>
+      <c r="F54" t="s">
+        <v>228</v>
+      </c>
+      <c r="G54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55" t="s">
+        <v>234</v>
+      </c>
+      <c r="F55" t="s">
+        <v>229</v>
+      </c>
+      <c r="G55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" t="s">
+        <v>234</v>
+      </c>
+      <c r="F56" t="s">
+        <v>228</v>
+      </c>
+      <c r="G56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" t="s">
+        <v>234</v>
+      </c>
+      <c r="F57" t="s">
+        <v>229</v>
+      </c>
+      <c r="G57" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>114</v>
+      </c>
+      <c r="E58" t="s">
+        <v>233</v>
+      </c>
+      <c r="F58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" t="s">
+        <v>233</v>
+      </c>
+      <c r="F59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" t="s">
+        <v>233</v>
+      </c>
+      <c r="F60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" t="s">
+        <v>233</v>
+      </c>
+      <c r="F61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>114</v>
+      </c>
+      <c r="E62" t="s">
+        <v>233</v>
+      </c>
+      <c r="F62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>114</v>
+      </c>
+      <c r="E63" t="s">
+        <v>233</v>
+      </c>
+      <c r="F63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>114</v>
+      </c>
+      <c r="E64" t="s">
+        <v>234</v>
+      </c>
+      <c r="G64" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>114</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G65" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>114</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G66" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G67" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>114</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G68" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>114</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>114</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G70" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>114</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G71" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72">
+        <v>15</v>
+      </c>
+      <c r="D72" t="s">
+        <v>114</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G72" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
+        <v>114</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G74" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>97</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G75" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G79" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C80">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>97</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G80" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C81">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>97</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82">
+        <v>9</v>
+      </c>
+      <c r="D82" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
+        <v>97</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C84">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>97</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85">
+        <v>12</v>
+      </c>
+      <c r="D85" t="s">
+        <v>97</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C86">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>97</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C87">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>97</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88">
+        <v>15</v>
+      </c>
+      <c r="D88" t="s">
+        <v>97</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C89">
+        <v>16</v>
+      </c>
+      <c r="D89" t="s">
+        <v>97</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B90" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>ZAIU-E002</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>114</v>
+      </c>
+      <c r="E90" t="s">
+        <v>233</v>
+      </c>
+      <c r="F90" t="s">
+        <v>257</v>
+      </c>
+      <c r="G90" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B91" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>ZAIU-E002</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>114</v>
+      </c>
+      <c r="E91" t="s">
+        <v>233</v>
+      </c>
+      <c r="F91" t="s">
+        <v>258</v>
+      </c>
+      <c r="G91" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B92" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>2308-1124</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>114</v>
+      </c>
+      <c r="E92" t="s">
+        <v>233</v>
+      </c>
+      <c r="F92" t="s">
+        <v>259</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B93" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>2308-1124</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>114</v>
+      </c>
+      <c r="E93" t="s">
+        <v>233</v>
+      </c>
+      <c r="F93" t="s">
+        <v>260</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B94" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>97</v>
+      </c>
+      <c r="E94" t="s">
+        <v>233</v>
+      </c>
+      <c r="F94" t="s">
+        <v>224</v>
+      </c>
+      <c r="G94" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B95" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>97</v>
+      </c>
+      <c r="E95" t="s">
+        <v>233</v>
+      </c>
+      <c r="F95" t="s">
+        <v>268</v>
+      </c>
+      <c r="G95" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B96" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96" t="s">
+        <v>97</v>
+      </c>
+      <c r="E96" t="s">
+        <v>233</v>
+      </c>
+      <c r="F96" t="s">
+        <v>270</v>
+      </c>
+      <c r="G96" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B97" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>97</v>
+      </c>
+      <c r="E97" t="s">
+        <v>233</v>
+      </c>
+      <c r="F97" t="s">
+        <v>272</v>
+      </c>
+      <c r="G97" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B98" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>114</v>
+      </c>
+      <c r="E98" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B99" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>114</v>
+      </c>
+      <c r="E99" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B100" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>114</v>
+      </c>
+      <c r="E100" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B101" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>114</v>
+      </c>
+      <c r="E101" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B102" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>114</v>
+      </c>
+      <c r="E102" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B103" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C103">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>114</v>
+      </c>
+      <c r="E103" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B104" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C104">
+        <v>7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>114</v>
+      </c>
+      <c r="E104" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B105" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C105">
+        <v>8</v>
+      </c>
+      <c r="D105" t="s">
+        <v>114</v>
+      </c>
+      <c r="E105" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B106" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C106">
+        <v>9</v>
+      </c>
+      <c r="D106" t="s">
+        <v>114</v>
+      </c>
+      <c r="E106" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B107" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C107">
+        <v>10</v>
+      </c>
+      <c r="D107" t="s">
+        <v>114</v>
+      </c>
+      <c r="E107" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B108" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C108">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s">
+        <v>114</v>
+      </c>
+      <c r="E108" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C109">
+        <v>12</v>
+      </c>
+      <c r="D109" t="s">
+        <v>114</v>
+      </c>
+      <c r="E109" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B110" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C110">
+        <v>13</v>
+      </c>
+      <c r="D110" t="s">
+        <v>114</v>
+      </c>
+      <c r="E110" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B111" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C111">
+        <v>14</v>
+      </c>
+      <c r="D111" t="s">
+        <v>114</v>
+      </c>
+      <c r="E111" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B112" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C112">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>114</v>
+      </c>
+      <c r="E112" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B113" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C113">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>114</v>
+      </c>
+      <c r="E113" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B114" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C114">
+        <v>17</v>
+      </c>
+      <c r="D114" t="s">
+        <v>114</v>
+      </c>
+      <c r="E114" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B115" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C115">
+        <v>18</v>
+      </c>
+      <c r="D115" t="s">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B116" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C116">
+        <v>19</v>
+      </c>
+      <c r="D116" t="s">
+        <v>114</v>
+      </c>
+      <c r="E116" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B117" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C117">
+        <v>20</v>
+      </c>
+      <c r="D117" t="s">
+        <v>114</v>
+      </c>
+      <c r="E117" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B118" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C118">
+        <v>21</v>
+      </c>
+      <c r="D118" t="s">
+        <v>114</v>
+      </c>
+      <c r="E118" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B119" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C119">
+        <v>22</v>
+      </c>
+      <c r="D119" t="s">
+        <v>114</v>
+      </c>
+      <c r="E119" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B120" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C120">
+        <v>23</v>
+      </c>
+      <c r="D120" t="s">
+        <v>114</v>
+      </c>
+      <c r="E120" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B121" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C121">
+        <v>24</v>
+      </c>
+      <c r="D121" t="s">
+        <v>114</v>
+      </c>
+      <c r="E121" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B122" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C122">
+        <v>25</v>
+      </c>
+      <c r="D122" t="s">
+        <v>114</v>
+      </c>
+      <c r="E122" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B123" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C123">
+        <v>26</v>
+      </c>
+      <c r="D123" t="s">
+        <v>114</v>
+      </c>
+      <c r="E123" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B124" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C124">
+        <v>27</v>
+      </c>
+      <c r="D124" t="s">
+        <v>114</v>
+      </c>
+      <c r="E124" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B125" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C125">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>114</v>
+      </c>
+      <c r="E125" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B126" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C126">
+        <v>29</v>
+      </c>
+      <c r="D126" t="s">
+        <v>114</v>
+      </c>
+      <c r="E126" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B127" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C127">
+        <v>30</v>
+      </c>
+      <c r="D127" t="s">
+        <v>114</v>
+      </c>
+      <c r="E127" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B128" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C128">
+        <v>31</v>
+      </c>
+      <c r="D128" t="s">
+        <v>114</v>
+      </c>
+      <c r="E128" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B129" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C129">
+        <v>32</v>
+      </c>
+      <c r="D129" t="s">
+        <v>114</v>
+      </c>
+      <c r="E129" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B130" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C130">
+        <v>33</v>
+      </c>
+      <c r="D130" t="s">
+        <v>114</v>
+      </c>
+      <c r="E130" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B131" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C131">
+        <v>34</v>
+      </c>
+      <c r="D131" t="s">
+        <v>114</v>
+      </c>
+      <c r="E131" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B132" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C132">
+        <v>35</v>
+      </c>
+      <c r="D132" t="s">
+        <v>114</v>
+      </c>
+      <c r="E132" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B133" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C133">
+        <v>36</v>
+      </c>
+      <c r="D133" t="s">
+        <v>114</v>
+      </c>
+      <c r="E133" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B134" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C134">
+        <v>37</v>
+      </c>
+      <c r="D134" t="s">
+        <v>114</v>
+      </c>
+      <c r="E134" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B135" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C135">
+        <v>38</v>
+      </c>
+      <c r="D135" t="s">
+        <v>114</v>
+      </c>
+      <c r="E135" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B136" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C136">
+        <v>39</v>
+      </c>
+      <c r="D136" t="s">
+        <v>114</v>
+      </c>
+      <c r="E136" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B137" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C137">
+        <v>40</v>
+      </c>
+      <c r="D137" t="s">
+        <v>114</v>
+      </c>
+      <c r="E137" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B138" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C138">
+        <v>41</v>
+      </c>
+      <c r="D138" t="s">
+        <v>114</v>
+      </c>
+      <c r="E138" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B139" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C139">
+        <v>42</v>
+      </c>
+      <c r="D139" t="s">
+        <v>114</v>
+      </c>
+      <c r="E139" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B140" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C140">
+        <v>43</v>
+      </c>
+      <c r="D140" t="s">
+        <v>114</v>
+      </c>
+      <c r="E140" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B141" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C141">
+        <v>44</v>
+      </c>
+      <c r="D141" t="s">
+        <v>114</v>
+      </c>
+      <c r="E141" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B142" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C142">
+        <v>45</v>
+      </c>
+      <c r="D142" t="s">
+        <v>114</v>
+      </c>
+      <c r="E142" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B143" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C143">
+        <v>46</v>
+      </c>
+      <c r="D143" t="s">
+        <v>114</v>
+      </c>
+      <c r="E143" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B144" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C144">
+        <v>47</v>
+      </c>
+      <c r="D144" t="s">
+        <v>114</v>
+      </c>
+      <c r="E144" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B145" s="1" t="str">
+        <f>Table4[[#This Row],[Device]]</f>
+        <v>CUMU-E001</v>
+      </c>
+      <c r="C145">
+        <v>48</v>
+      </c>
+      <c r="D145" t="s">
+        <v>114</v>
+      </c>
+      <c r="E145" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C420E2D7-0541-2D43-B6B6-B7173797BCCE}">
-  <dimension ref="A1:F117"/>
-  <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="D27" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" t="s">
-        <v>141</v>
-      </c>
-      <c r="F28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" t="s">
-        <v>141</v>
-      </c>
-      <c r="F29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30">
-        <v>13</v>
-      </c>
-      <c r="D30" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" t="s">
-        <v>141</v>
-      </c>
-      <c r="F30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" t="s">
-        <v>141</v>
-      </c>
-      <c r="F31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32">
-        <v>15</v>
-      </c>
-      <c r="D32" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" t="s">
-        <v>141</v>
-      </c>
-      <c r="F32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33">
-        <v>16</v>
-      </c>
-      <c r="D33" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" t="s">
-        <v>141</v>
-      </c>
-      <c r="F33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" t="s">
-        <v>115</v>
-      </c>
-      <c r="F34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" t="s">
-        <v>116</v>
-      </c>
-      <c r="F35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" t="s">
-        <v>118</v>
-      </c>
-      <c r="F37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" t="s">
-        <v>119</v>
-      </c>
-      <c r="F38" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39">
-        <v>6</v>
-      </c>
-      <c r="D39" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" t="s">
-        <v>120</v>
-      </c>
-      <c r="F39" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40">
-        <v>7</v>
-      </c>
-      <c r="D40" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" t="s">
-        <v>121</v>
-      </c>
-      <c r="F40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42">
-        <v>9</v>
-      </c>
-      <c r="D42" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" t="s">
-        <v>123</v>
-      </c>
-      <c r="F42" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43">
-        <v>10</v>
-      </c>
-      <c r="D43" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" t="s">
-        <v>124</v>
-      </c>
-      <c r="F43" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C44">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" t="s">
-        <v>125</v>
-      </c>
-      <c r="F44" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45">
-        <v>12</v>
-      </c>
-      <c r="D45" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" t="s">
-        <v>125</v>
-      </c>
-      <c r="F45" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46">
-        <v>13</v>
-      </c>
-      <c r="D46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" t="s">
-        <v>125</v>
-      </c>
-      <c r="F46" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47">
-        <v>14</v>
-      </c>
-      <c r="D47" t="s">
-        <v>97</v>
-      </c>
-      <c r="E47" t="s">
-        <v>125</v>
-      </c>
-      <c r="F47" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48">
-        <v>15</v>
-      </c>
-      <c r="D48" t="s">
-        <v>97</v>
-      </c>
-      <c r="E48" t="s">
-        <v>125</v>
-      </c>
-      <c r="F48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49">
-        <v>16</v>
-      </c>
-      <c r="D49" t="s">
-        <v>97</v>
-      </c>
-      <c r="E49" t="s">
-        <v>126</v>
-      </c>
-      <c r="F49" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="D51" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-      <c r="D55" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-      <c r="D56" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57">
-        <v>4</v>
-      </c>
-      <c r="D57" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C58">
-        <v>5</v>
-      </c>
-      <c r="D58" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60">
-        <v>7</v>
-      </c>
-      <c r="D60" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61">
-        <v>8</v>
-      </c>
-      <c r="D61" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C62">
-        <v>9</v>
-      </c>
-      <c r="D62" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63">
-        <v>10</v>
-      </c>
-      <c r="D63" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C64">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C65">
-        <v>12</v>
-      </c>
-      <c r="D65" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66">
-        <v>13</v>
-      </c>
-      <c r="D66" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C67">
-        <v>14</v>
-      </c>
-      <c r="D67" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C68">
-        <v>15</v>
-      </c>
-      <c r="D68" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C69">
-        <v>16</v>
-      </c>
-      <c r="D69" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C71">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72">
-        <v>3</v>
-      </c>
-      <c r="D72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C73">
-        <v>4</v>
-      </c>
-      <c r="D73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C74">
-        <v>5</v>
-      </c>
-      <c r="D74" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C75">
-        <v>6</v>
-      </c>
-      <c r="D75" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C76">
-        <v>7</v>
-      </c>
-      <c r="D76" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C77">
-        <v>8</v>
-      </c>
-      <c r="D77" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C78">
-        <v>9</v>
-      </c>
-      <c r="D78" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C79">
-        <v>10</v>
-      </c>
-      <c r="D79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C80">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C81">
-        <v>12</v>
-      </c>
-      <c r="D81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C82">
-        <v>13</v>
-      </c>
-      <c r="D82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C83">
-        <v>14</v>
-      </c>
-      <c r="D83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C84">
-        <v>15</v>
-      </c>
-      <c r="D84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C85">
-        <v>16</v>
-      </c>
-      <c r="D85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>114</v>
-      </c>
-      <c r="E86" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C87">
-        <v>2</v>
-      </c>
-      <c r="D87" t="s">
-        <v>114</v>
-      </c>
-      <c r="E87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C88">
-        <v>3</v>
-      </c>
-      <c r="D88" t="s">
-        <v>114</v>
-      </c>
-      <c r="E88" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C89">
-        <v>4</v>
-      </c>
-      <c r="D89" t="s">
-        <v>114</v>
-      </c>
-      <c r="E89" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C90">
-        <v>5</v>
-      </c>
-      <c r="D90" t="s">
-        <v>114</v>
-      </c>
-      <c r="E90" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C91">
-        <v>6</v>
-      </c>
-      <c r="D91" t="s">
-        <v>114</v>
-      </c>
-      <c r="E91" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C92">
-        <v>7</v>
-      </c>
-      <c r="D92" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C93">
-        <v>8</v>
-      </c>
-      <c r="D93" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C94">
-        <v>9</v>
-      </c>
-      <c r="D94" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C95">
-        <v>10</v>
-      </c>
-      <c r="D95" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C96">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C97">
-        <v>12</v>
-      </c>
-      <c r="D97" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C98">
-        <v>13</v>
-      </c>
-      <c r="D98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C99">
-        <v>14</v>
-      </c>
-      <c r="D99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C100">
-        <v>15</v>
-      </c>
-      <c r="D100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C101">
-        <v>16</v>
-      </c>
-      <c r="D101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102" t="s">
-        <v>97</v>
-      </c>
-      <c r="F102" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C103">
-        <v>2</v>
-      </c>
-      <c r="D103" t="s">
-        <v>97</v>
-      </c>
-      <c r="F103" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C104">
-        <v>3</v>
-      </c>
-      <c r="D104" t="s">
-        <v>97</v>
-      </c>
-      <c r="F104" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C105">
-        <v>4</v>
-      </c>
-      <c r="D105" t="s">
-        <v>97</v>
-      </c>
-      <c r="F105" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C106">
-        <v>5</v>
-      </c>
-      <c r="D106" t="s">
-        <v>97</v>
-      </c>
-      <c r="F106" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C107">
-        <v>6</v>
-      </c>
-      <c r="D107" t="s">
-        <v>97</v>
-      </c>
-      <c r="F107" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C108">
-        <v>7</v>
-      </c>
-      <c r="D108" t="s">
-        <v>97</v>
-      </c>
-      <c r="F108" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C109">
-        <v>8</v>
-      </c>
-      <c r="D109" t="s">
-        <v>97</v>
-      </c>
-      <c r="F109" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C110">
-        <v>9</v>
-      </c>
-      <c r="D110" t="s">
-        <v>97</v>
-      </c>
-      <c r="F110" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C111">
-        <v>10</v>
-      </c>
-      <c r="D111" t="s">
-        <v>97</v>
-      </c>
-      <c r="F111" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C112">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s">
-        <v>97</v>
-      </c>
-      <c r="F112" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C113">
-        <v>12</v>
-      </c>
-      <c r="D113" t="s">
-        <v>97</v>
-      </c>
-      <c r="F113" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C114">
-        <v>13</v>
-      </c>
-      <c r="D114" t="s">
-        <v>97</v>
-      </c>
-      <c r="F114" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C115">
-        <v>14</v>
-      </c>
-      <c r="D115" t="s">
-        <v>97</v>
-      </c>
-      <c r="F115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C116">
-        <v>15</v>
-      </c>
-      <c r="D116" t="s">
-        <v>97</v>
-      </c>
-      <c r="F116" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C117">
-        <v>16</v>
-      </c>
-      <c r="D117" t="s">
-        <v>97</v>
-      </c>
-      <c r="F117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -5004,7 +6571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D53B1D-3347-674A-B153-17013D7E306E}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -5018,16 +6585,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5038,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5052,7 +6619,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -5066,7 +6633,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -5080,7 +6647,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -5094,7 +6661,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -5108,7 +6675,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -5122,7 +6689,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -5136,7 +6703,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -5150,7 +6717,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -5164,7 +6731,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -5178,7 +6745,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5192,7 +6759,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -5206,7 +6773,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -5220,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -5234,7 +6801,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -5248,7 +6815,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -5256,13 +6823,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5270,13 +6837,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -5284,13 +6851,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -5298,13 +6865,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -5312,13 +6879,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -5326,13 +6893,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B23">
         <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D23">
         <v>6</v>
@@ -5340,13 +6907,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B24">
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D24">
         <v>7</v>
@@ -5354,13 +6921,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B25">
         <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D25">
         <v>8</v>
@@ -5368,13 +6935,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B26">
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D26">
         <v>9</v>
@@ -5382,13 +6949,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B27">
         <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D27">
         <v>10</v>
@@ -5396,13 +6963,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B28">
         <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D28">
         <v>11</v>
@@ -5410,13 +6977,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B29">
         <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D29">
         <v>12</v>
@@ -5424,13 +6991,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B30">
         <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D30">
         <v>13</v>
@@ -5438,13 +7005,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B31">
         <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D31">
         <v>15</v>
@@ -5452,13 +7019,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B32">
         <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D32">
         <v>16</v>
@@ -5473,8 +7040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24D4A93-D0E2-2949-A61E-1679DC88B601}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="F10:G11"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5489,16 +7056,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -5528,19 +7095,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -5548,19 +7115,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E3" s="6">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -5568,19 +7135,19 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -5588,19 +7155,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C5" s="5">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -5608,19 +7175,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F6" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -5628,19 +7195,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E7" s="6">
         <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -5648,19 +7215,19 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E8" s="6">
         <v>15</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -5668,19 +7235,19 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C9" s="5">
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E9" s="6">
         <v>17</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
@@ -5688,19 +7255,19 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F10" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
@@ -5708,19 +7275,19 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C11" s="5">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -5728,19 +7295,19 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C12" s="5">
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E12" s="6">
         <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -5748,19 +7315,19 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C13" s="5">
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E13" s="6">
         <v>12</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
@@ -5768,19 +7335,19 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C14" s="5">
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E14" s="6">
         <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
@@ -5788,19 +7355,19 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C15" s="5">
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="F15" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
@@ -5808,19 +7375,19 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C16" s="5">
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -5828,19 +7395,19 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C17" s="5">
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/uac_audio_config.xlsx
+++ b/data/uac_audio_config.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donert/Documents/UACTech/SystemDocumentation/github/uactechdoc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2279D21-1F5D-9D40-8240-03E23664585A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BDC8A1-10B0-8A40-B4B9-DE4298664F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-72900" yWindow="-28040" windowWidth="47680" windowHeight="33300" activeTab="2" xr2:uid="{C6DAFA3B-D3DD-0B4C-98F6-8BDAEB6918C5}"/>
+    <workbookView xWindow="140" yWindow="920" windowWidth="14880" windowHeight="18580" activeTab="1" xr2:uid="{C6DAFA3B-D3DD-0B4C-98F6-8BDAEB6918C5}"/>
   </bookViews>
   <sheets>
     <sheet name="ConsoleInputs" sheetId="1" r:id="rId1"/>
-    <sheet name="ConsoleOutputs" sheetId="4" r:id="rId2"/>
-    <sheet name="DanteDevices" sheetId="2" r:id="rId3"/>
-    <sheet name="DantePatch" sheetId="3" r:id="rId4"/>
-    <sheet name="dante_outputs" sheetId="5" r:id="rId5"/>
+    <sheet name="dLive Inputs" sheetId="6" r:id="rId2"/>
+    <sheet name="ConsoleOutputs" sheetId="4" r:id="rId3"/>
+    <sheet name="DanteDevices" sheetId="2" r:id="rId4"/>
+    <sheet name="DantePatch" sheetId="3" r:id="rId5"/>
+    <sheet name="dante_outputs" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="332">
   <si>
     <t>Channel</t>
   </si>
@@ -862,6 +863,180 @@
   </si>
   <si>
     <t>Monitor R</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>MD Mic</t>
+  </si>
+  <si>
+    <t>MixRack</t>
+  </si>
+  <si>
+    <t>Djembe</t>
+  </si>
+  <si>
+    <t>Perc</t>
+  </si>
+  <si>
+    <t>Eg1</t>
+  </si>
+  <si>
+    <t>Eg2</t>
+  </si>
+  <si>
+    <t>Ag1</t>
+  </si>
+  <si>
+    <t>Ag2</t>
+  </si>
+  <si>
+    <t>Violin</t>
+  </si>
+  <si>
+    <t>Flute</t>
+  </si>
+  <si>
+    <t>Sz L</t>
+  </si>
+  <si>
+    <t>Sz R</t>
+  </si>
+  <si>
+    <t>Choir 1</t>
+  </si>
+  <si>
+    <t>Choir 2</t>
+  </si>
+  <si>
+    <t>Choir 3</t>
+  </si>
+  <si>
+    <t>Choir 4</t>
+  </si>
+  <si>
+    <t>Bluetooth L</t>
+  </si>
+  <si>
+    <t>Bluetooth R</t>
+  </si>
+  <si>
+    <t>Room L</t>
+  </si>
+  <si>
+    <t>Room R</t>
+  </si>
+  <si>
+    <t>B3 Lo</t>
+  </si>
+  <si>
+    <t>B3 Hi L</t>
+  </si>
+  <si>
+    <t>B3 Hi R</t>
+  </si>
+  <si>
+    <t>Kk In</t>
+  </si>
+  <si>
+    <t>Kk Out</t>
+  </si>
+  <si>
+    <t>Sn Bot</t>
+  </si>
+  <si>
+    <t>Sn Top</t>
+  </si>
+  <si>
+    <t>Hat</t>
+  </si>
+  <si>
+    <t>Tm 1</t>
+  </si>
+  <si>
+    <t>Tm 2</t>
+  </si>
+  <si>
+    <t>Tm 3</t>
+  </si>
+  <si>
+    <t>Tm Fl</t>
+  </si>
+  <si>
+    <t>Ride</t>
+  </si>
+  <si>
+    <t>Oh L</t>
+  </si>
+  <si>
+    <t>Oh R</t>
+  </si>
+  <si>
+    <t>Bs</t>
+  </si>
+  <si>
+    <t>HH11 / BP04</t>
+  </si>
+  <si>
+    <t>HH12 / BP05</t>
+  </si>
+  <si>
+    <t>G001 R</t>
+  </si>
+  <si>
+    <t>G002 L</t>
+  </si>
+  <si>
+    <t>G002 R</t>
+  </si>
+  <si>
+    <t>Guest L</t>
+  </si>
+  <si>
+    <t>Guest R</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Talkback</t>
+  </si>
+  <si>
+    <t>IO1 (Dante)</t>
+  </si>
+  <si>
+    <t>DX1 (DX168)</t>
+  </si>
+  <si>
+    <t>S5000</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>G001 L</t>
+  </si>
+  <si>
+    <t>G002 Output (VSC)</t>
+  </si>
+  <si>
+    <t>dLive Inputs (normal)</t>
+  </si>
+  <si>
+    <t>Konductor Input</t>
+  </si>
+  <si>
+    <t>E001 input (Reaper)</t>
+  </si>
+  <si>
+    <t>dLive Input (VSC)</t>
   </si>
 </sst>
 </file>
@@ -910,7 +1085,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -921,6 +1096,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -969,7 +1150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -983,93 +1164,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <font>
         <b val="0"/>
@@ -1182,6 +1297,104 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1199,7 +1412,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2311C7CC-3CAB-D248-BDEA-A3EE7A3D8D2D}" name="Table1" displayName="Table1" ref="A1:G69" totalsRowShown="0">
   <autoFilter ref="A1:G69" xr:uid="{2311C7CC-3CAB-D248-BDEA-A3EE7A3D8D2D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DBB20B09-FB33-6247-AD08-E97214AF1637}" name="Device" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{DBB20B09-FB33-6247-AD08-E97214AF1637}" name="Device" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{88D57E0E-91FD-7D4F-89A1-2264885642B2}" name="Channel"/>
     <tableColumn id="3" xr3:uid="{9E11E5CF-4755-1943-8DAE-DE6526F4BA0B}" name="Usage"/>
     <tableColumn id="4" xr3:uid="{583EBD09-A311-8549-AD99-0519A1BA7038}" name="Type"/>
@@ -1212,12 +1425,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ABDCAFCE-FDD5-DB4C-822F-E432F9DD29BB}" name="Table5" displayName="Table5" ref="A1:H129" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:H129" xr:uid="{ABDCAFCE-FDD5-DB4C-822F-E432F9DD29BB}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{0E6A60A7-3B9E-1245-B6B0-8749886FC86A}" name="dLive Inputs (normal)" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{826E7323-F691-5442-912B-E0CBAAA4428D}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00D3393C-0BBC-DD4C-ADA5-7B6C44F683D1}" name="Device"/>
+    <tableColumn id="4" xr3:uid="{4DD0492B-5A42-3648-8203-7D62B858D626}" name="Port" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{B2A1F6AB-34D2-3C40-9341-45876A1E69E4}" name="G002 Output (VSC)" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{5538FAC4-E095-A840-8D18-DEB7B0714DD4}" name="dLive Input (VSC)" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{B0DA74F1-771E-5C46-BCFC-E9FEA4B38663}" name="E001 input (Reaper)" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{14F24F0E-BD9E-0B40-807A-02AF9FEEC7E2}" name="Konductor Input" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1765E8B9-222B-B446-9BF3-DEB443021D72}" name="Table2" displayName="Table2" ref="A1:H33" totalsRowShown="0">
   <autoFilter ref="A1:H33" xr:uid="{1765E8B9-222B-B446-9BF3-DEB443021D72}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{9EDC3475-3A92-D44A-975D-D24A46894B36}" name="Device" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{0BC25048-D076-B747-A580-B06384E0734E}" name="OutputType" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{83A4B198-2B6D-7B4A-902F-927F8B9185BE}" name="Output" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{9EDC3475-3A92-D44A-975D-D24A46894B36}" name="Device" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{0BC25048-D076-B747-A580-B06384E0734E}" name="OutputType" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{83A4B198-2B6D-7B4A-902F-927F8B9185BE}" name="Output" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{BAE3D02E-A444-D548-A15E-B6D66C01F6ED}" name="Label"/>
     <tableColumn id="5" xr3:uid="{D96C6764-0724-E443-8AE6-A2E45C90F9DF}" name="Usage">
       <calculatedColumnFormula>D2</calculatedColumnFormula>
@@ -1230,12 +1460,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{83E74022-6F6B-1045-B8C5-B98B3D21E9BD}" name="Table4" displayName="Table4" ref="A1:G145" totalsRowShown="0">
   <autoFilter ref="A1:G145" xr:uid="{83E74022-6F6B-1045-B8C5-B98B3D21E9BD}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E602AD31-C3D3-FD43-8372-B5858DBF28D9}" name="Device" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{B02630D7-D7C3-E441-9182-A59F371F65DE}" name="NetworkDevice" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E602AD31-C3D3-FD43-8372-B5858DBF28D9}" name="Device" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{B02630D7-D7C3-E441-9182-A59F371F65DE}" name="NetworkDevice" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{2E2A113B-B3DA-6B4E-91A4-24182F327EB9}" name="NetworkDeviceChannel"/>
     <tableColumn id="4" xr3:uid="{3DC344F6-23E3-D54C-9E87-5780E47CCA37}" name="InOut"/>
     <tableColumn id="7" xr3:uid="{D2023134-14D1-204E-8572-D20AE5BB355A}" name="Used"/>
@@ -1246,25 +1476,25 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4F1912FF-9B7B-DD40-A31B-6AFC18D6A66C}" name="Table3" displayName="Table3" ref="A1:F17" totalsRowShown="0" headerRowDxfId="10">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4F1912FF-9B7B-DD40-A31B-6AFC18D6A66C}" name="Table3" displayName="Table3" ref="A1:F17" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:F17" xr:uid="{4F1912FF-9B7B-DD40-A31B-6AFC18D6A66C}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{4E358B1B-8ADB-D74E-A54A-769E22787376}" name="Device" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{4E358B1B-8ADB-D74E-A54A-769E22787376}" name="Device" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{B6EC83A2-1A27-5146-9741-FBC9BBA84F41}" name="Card"/>
-    <tableColumn id="3" xr3:uid="{52135101-6543-8D46-A88B-254E00FCBC19}" name="Card Channel" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{138F406F-59C6-264F-90AE-F2674B19C317}" name="Source" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{FB840414-1864-B946-BDC0-DA99FA659BDD}" name="Related Inputs" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{DEA866AD-3B1E-3E46-A00A-B618F26B8C2E}" name="Usage" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{52135101-6543-8D46-A88B-254E00FCBC19}" name="Card Channel" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{138F406F-59C6-264F-90AE-F2674B19C317}" name="Source" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{FB840414-1864-B946-BDC0-DA99FA659BDD}" name="Related Inputs" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{DEA866AD-3B1E-3E46-A00A-B618F26B8C2E}" name="Usage" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1302,7 +1532,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1408,7 +1638,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1550,7 +1780,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1561,7 +1791,7 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
@@ -2869,6 +3099,1865 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9B722B-A685-AA47-B15D-4CB871BDA8B9}">
+  <dimension ref="A1:H129"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="6"/>
+    <col min="5" max="5" width="9.83203125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D9" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" s="6">
+        <v>13</v>
+      </c>
+      <c r="E14" s="6">
+        <v>14</v>
+      </c>
+      <c r="F14" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="6">
+        <v>14</v>
+      </c>
+      <c r="E15" s="6">
+        <v>15</v>
+      </c>
+      <c r="F15" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D17" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>277</v>
+      </c>
+      <c r="D18" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>277</v>
+      </c>
+      <c r="D19" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D20" s="6">
+        <v>19</v>
+      </c>
+      <c r="E20" s="6">
+        <v>16</v>
+      </c>
+      <c r="F20" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C21" t="s">
+        <v>277</v>
+      </c>
+      <c r="D21" s="6">
+        <v>20</v>
+      </c>
+      <c r="E21" s="6">
+        <v>17</v>
+      </c>
+      <c r="F21" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>282</v>
+      </c>
+      <c r="C22" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" s="6">
+        <v>21</v>
+      </c>
+      <c r="E22" s="6">
+        <v>18</v>
+      </c>
+      <c r="F22" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" t="s">
+        <v>277</v>
+      </c>
+      <c r="D23" s="6">
+        <v>22</v>
+      </c>
+      <c r="E23" s="6">
+        <v>19</v>
+      </c>
+      <c r="F23" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" t="s">
+        <v>277</v>
+      </c>
+      <c r="D24" s="6">
+        <v>23</v>
+      </c>
+      <c r="E24" s="6">
+        <v>20</v>
+      </c>
+      <c r="F24" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>285</v>
+      </c>
+      <c r="C25" t="s">
+        <v>277</v>
+      </c>
+      <c r="D25" s="6">
+        <v>24</v>
+      </c>
+      <c r="E25" s="6">
+        <v>21</v>
+      </c>
+      <c r="F25" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" t="s">
+        <v>277</v>
+      </c>
+      <c r="D26" s="6">
+        <v>25</v>
+      </c>
+      <c r="E26" s="6">
+        <v>22</v>
+      </c>
+      <c r="F26" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C27" t="s">
+        <v>277</v>
+      </c>
+      <c r="D27" s="6">
+        <v>26</v>
+      </c>
+      <c r="E27" s="6">
+        <v>23</v>
+      </c>
+      <c r="F27" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>286</v>
+      </c>
+      <c r="C28" t="s">
+        <v>277</v>
+      </c>
+      <c r="D28" s="6">
+        <v>27</v>
+      </c>
+      <c r="E28" s="6">
+        <v>24</v>
+      </c>
+      <c r="F28" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C29" t="s">
+        <v>277</v>
+      </c>
+      <c r="D29" s="6">
+        <v>28</v>
+      </c>
+      <c r="E29" s="6">
+        <v>25</v>
+      </c>
+      <c r="F29" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>277</v>
+      </c>
+      <c r="D30" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>277</v>
+      </c>
+      <c r="D31" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>277</v>
+      </c>
+      <c r="D33" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>277</v>
+      </c>
+      <c r="D34" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>277</v>
+      </c>
+      <c r="D35" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>288</v>
+      </c>
+      <c r="C36" t="s">
+        <v>277</v>
+      </c>
+      <c r="D36" s="6">
+        <v>35</v>
+      </c>
+      <c r="E36" s="6">
+        <v>26</v>
+      </c>
+      <c r="F36" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>289</v>
+      </c>
+      <c r="C37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D37" s="6">
+        <v>36</v>
+      </c>
+      <c r="E37" s="6">
+        <v>27</v>
+      </c>
+      <c r="F37" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>290</v>
+      </c>
+      <c r="C38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D38" s="6">
+        <v>37</v>
+      </c>
+      <c r="E38" s="6">
+        <v>28</v>
+      </c>
+      <c r="F38" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>291</v>
+      </c>
+      <c r="C39" t="s">
+        <v>277</v>
+      </c>
+      <c r="D39" s="6">
+        <v>38</v>
+      </c>
+      <c r="E39" s="6">
+        <v>29</v>
+      </c>
+      <c r="F39" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>292</v>
+      </c>
+      <c r="C40" t="s">
+        <v>277</v>
+      </c>
+      <c r="D40" s="6">
+        <v>39</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>293</v>
+      </c>
+      <c r="C41" t="s">
+        <v>277</v>
+      </c>
+      <c r="D41" s="6">
+        <v>40</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>277</v>
+      </c>
+      <c r="D42" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>277</v>
+      </c>
+      <c r="D43" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>277</v>
+      </c>
+      <c r="D44" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>294</v>
+      </c>
+      <c r="C45" t="s">
+        <v>277</v>
+      </c>
+      <c r="D45" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>295</v>
+      </c>
+      <c r="C46" t="s">
+        <v>277</v>
+      </c>
+      <c r="D46" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>277</v>
+      </c>
+      <c r="D47" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>277</v>
+      </c>
+      <c r="D48" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>277</v>
+      </c>
+      <c r="D49" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>277</v>
+      </c>
+      <c r="D50" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>296</v>
+      </c>
+      <c r="C51" t="s">
+        <v>277</v>
+      </c>
+      <c r="D51" s="6">
+        <v>50</v>
+      </c>
+      <c r="E51" s="6">
+        <v>32</v>
+      </c>
+      <c r="F51" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>297</v>
+      </c>
+      <c r="C52" t="s">
+        <v>277</v>
+      </c>
+      <c r="D52" s="6">
+        <v>51</v>
+      </c>
+      <c r="E52" s="6">
+        <v>33</v>
+      </c>
+      <c r="F52" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>298</v>
+      </c>
+      <c r="C53" t="s">
+        <v>277</v>
+      </c>
+      <c r="D53" s="6">
+        <v>52</v>
+      </c>
+      <c r="E53" s="6">
+        <v>34</v>
+      </c>
+      <c r="F53" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>277</v>
+      </c>
+      <c r="D54" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>277</v>
+      </c>
+      <c r="D55" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>277</v>
+      </c>
+      <c r="D56" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>277</v>
+      </c>
+      <c r="D57" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>277</v>
+      </c>
+      <c r="D58" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>277</v>
+      </c>
+      <c r="D59" s="6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>277</v>
+      </c>
+      <c r="D60" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>277</v>
+      </c>
+      <c r="D61" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>277</v>
+      </c>
+      <c r="D62" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>277</v>
+      </c>
+      <c r="D63" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>277</v>
+      </c>
+      <c r="D64" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>277</v>
+      </c>
+      <c r="D65" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>299</v>
+      </c>
+      <c r="C66" t="s">
+        <v>322</v>
+      </c>
+      <c r="D66" s="6">
+        <v>1</v>
+      </c>
+      <c r="E66" s="6">
+        <v>1</v>
+      </c>
+      <c r="F66" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>300</v>
+      </c>
+      <c r="C67" t="s">
+        <v>322</v>
+      </c>
+      <c r="D67" s="6">
+        <v>1</v>
+      </c>
+      <c r="E67" s="6">
+        <v>2</v>
+      </c>
+      <c r="F67" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>301</v>
+      </c>
+      <c r="C68" t="s">
+        <v>322</v>
+      </c>
+      <c r="D68" s="6">
+        <v>1</v>
+      </c>
+      <c r="E68" s="6">
+        <v>3</v>
+      </c>
+      <c r="F68" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>302</v>
+      </c>
+      <c r="C69" t="s">
+        <v>322</v>
+      </c>
+      <c r="D69" s="6">
+        <v>1</v>
+      </c>
+      <c r="E69" s="6">
+        <v>4</v>
+      </c>
+      <c r="F69" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>303</v>
+      </c>
+      <c r="C70" t="s">
+        <v>322</v>
+      </c>
+      <c r="D70" s="6">
+        <v>1</v>
+      </c>
+      <c r="E70" s="6">
+        <v>5</v>
+      </c>
+      <c r="F70" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>304</v>
+      </c>
+      <c r="C71" t="s">
+        <v>322</v>
+      </c>
+      <c r="D71" s="6">
+        <v>1</v>
+      </c>
+      <c r="E71" s="6">
+        <v>6</v>
+      </c>
+      <c r="F71" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>305</v>
+      </c>
+      <c r="C72" t="s">
+        <v>322</v>
+      </c>
+      <c r="D72" s="6">
+        <v>1</v>
+      </c>
+      <c r="E72" s="6">
+        <v>7</v>
+      </c>
+      <c r="F72" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>306</v>
+      </c>
+      <c r="C73" t="s">
+        <v>322</v>
+      </c>
+      <c r="D73" s="6">
+        <v>1</v>
+      </c>
+      <c r="E73" s="6">
+        <v>8</v>
+      </c>
+      <c r="F73" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>307</v>
+      </c>
+      <c r="C74" t="s">
+        <v>322</v>
+      </c>
+      <c r="D74" s="6">
+        <v>1</v>
+      </c>
+      <c r="E74" s="6">
+        <v>9</v>
+      </c>
+      <c r="F74" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>308</v>
+      </c>
+      <c r="C75" t="s">
+        <v>322</v>
+      </c>
+      <c r="D75" s="6">
+        <v>1</v>
+      </c>
+      <c r="E75" s="6">
+        <v>10</v>
+      </c>
+      <c r="F75" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>309</v>
+      </c>
+      <c r="C76" t="s">
+        <v>322</v>
+      </c>
+      <c r="D76" s="6">
+        <v>1</v>
+      </c>
+      <c r="E76" s="6">
+        <v>11</v>
+      </c>
+      <c r="F76" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>310</v>
+      </c>
+      <c r="C77" t="s">
+        <v>322</v>
+      </c>
+      <c r="D77" s="6">
+        <v>1</v>
+      </c>
+      <c r="E77" s="6">
+        <v>12</v>
+      </c>
+      <c r="F77" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>311</v>
+      </c>
+      <c r="C78" t="s">
+        <v>322</v>
+      </c>
+      <c r="D78" s="6">
+        <v>1</v>
+      </c>
+      <c r="E78" s="6">
+        <v>13</v>
+      </c>
+      <c r="F78" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" t="s">
+        <v>321</v>
+      </c>
+      <c r="D82" s="6">
+        <v>1</v>
+      </c>
+      <c r="E82" s="6">
+        <v>41</v>
+      </c>
+      <c r="F82" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>105</v>
+      </c>
+      <c r="G82" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" t="s">
+        <v>321</v>
+      </c>
+      <c r="D83" s="6">
+        <v>2</v>
+      </c>
+      <c r="E83" s="6">
+        <v>42</v>
+      </c>
+      <c r="F83" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>106</v>
+      </c>
+      <c r="G83" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" t="s">
+        <v>321</v>
+      </c>
+      <c r="D84" s="6">
+        <v>3</v>
+      </c>
+      <c r="E84" s="6">
+        <v>43</v>
+      </c>
+      <c r="F84" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>107</v>
+      </c>
+      <c r="G84" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85" t="s">
+        <v>321</v>
+      </c>
+      <c r="D85" s="6">
+        <v>4</v>
+      </c>
+      <c r="E85" s="6">
+        <v>44</v>
+      </c>
+      <c r="F85" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>108</v>
+      </c>
+      <c r="G85" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="6">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" t="s">
+        <v>321</v>
+      </c>
+      <c r="D86" s="6">
+        <v>5</v>
+      </c>
+      <c r="E86" s="6">
+        <v>45</v>
+      </c>
+      <c r="F86" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>109</v>
+      </c>
+      <c r="G86" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>103</v>
+      </c>
+      <c r="C87" t="s">
+        <v>321</v>
+      </c>
+      <c r="D87" s="6">
+        <v>6</v>
+      </c>
+      <c r="E87" s="6">
+        <v>46</v>
+      </c>
+      <c r="F87" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>110</v>
+      </c>
+      <c r="G87" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>104</v>
+      </c>
+      <c r="C88" t="s">
+        <v>321</v>
+      </c>
+      <c r="D88" s="6">
+        <v>7</v>
+      </c>
+      <c r="E88" s="6">
+        <v>47</v>
+      </c>
+      <c r="F88" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>111</v>
+      </c>
+      <c r="G88" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="6">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>105</v>
+      </c>
+      <c r="C89" t="s">
+        <v>321</v>
+      </c>
+      <c r="D89" s="6">
+        <v>8</v>
+      </c>
+      <c r="E89" s="6">
+        <v>48</v>
+      </c>
+      <c r="F89" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>112</v>
+      </c>
+      <c r="G89" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="6">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" t="s">
+        <v>321</v>
+      </c>
+      <c r="D90" s="6">
+        <v>9</v>
+      </c>
+      <c r="E90" s="6">
+        <v>49</v>
+      </c>
+      <c r="F90" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>113</v>
+      </c>
+      <c r="G90" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" t="s">
+        <v>321</v>
+      </c>
+      <c r="D91" s="6">
+        <v>10</v>
+      </c>
+      <c r="E91" s="6">
+        <v>50</v>
+      </c>
+      <c r="F91" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>114</v>
+      </c>
+      <c r="G91" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" t="s">
+        <v>321</v>
+      </c>
+      <c r="D92" s="6">
+        <v>11</v>
+      </c>
+      <c r="E92" s="6">
+        <v>51</v>
+      </c>
+      <c r="F92" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>115</v>
+      </c>
+      <c r="G92" s="13"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" t="s">
+        <v>321</v>
+      </c>
+      <c r="D93" s="6">
+        <v>12</v>
+      </c>
+      <c r="E93" s="6">
+        <v>52</v>
+      </c>
+      <c r="F93" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>116</v>
+      </c>
+      <c r="G93" s="13"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="6">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94" t="s">
+        <v>321</v>
+      </c>
+      <c r="D94" s="6">
+        <v>13</v>
+      </c>
+      <c r="E94" s="6">
+        <v>53</v>
+      </c>
+      <c r="F94" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>117</v>
+      </c>
+      <c r="G94" s="13"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="6">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>312</v>
+      </c>
+      <c r="C95" t="s">
+        <v>321</v>
+      </c>
+      <c r="D95" s="6">
+        <v>14</v>
+      </c>
+      <c r="E95" s="6">
+        <v>54</v>
+      </c>
+      <c r="F95" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>118</v>
+      </c>
+      <c r="G95" s="13"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="6">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>313</v>
+      </c>
+      <c r="C96" t="s">
+        <v>321</v>
+      </c>
+      <c r="D96" s="6">
+        <v>15</v>
+      </c>
+      <c r="E96" s="6">
+        <v>55</v>
+      </c>
+      <c r="F96" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>119</v>
+      </c>
+      <c r="G96" s="13"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="6">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>252</v>
+      </c>
+      <c r="C97" t="s">
+        <v>321</v>
+      </c>
+      <c r="D97" s="6">
+        <v>16</v>
+      </c>
+      <c r="E97" s="6">
+        <v>56</v>
+      </c>
+      <c r="F97" s="6">
+        <f>Table5[[#This Row],[G002 Output (VSC)]]+64</f>
+        <v>120</v>
+      </c>
+      <c r="G97" s="13"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>326</v>
+      </c>
+      <c r="C100" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="6">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>314</v>
+      </c>
+      <c r="C101" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="6">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>315</v>
+      </c>
+      <c r="C102" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>316</v>
+      </c>
+      <c r="C103" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="6">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>84</v>
+      </c>
+      <c r="C122" t="s">
+        <v>323</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="6">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>85</v>
+      </c>
+      <c r="C123" t="s">
+        <v>323</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="6">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>317</v>
+      </c>
+      <c r="C124" t="s">
+        <v>323</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="6">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>318</v>
+      </c>
+      <c r="C125" t="s">
+        <v>323</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="6">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>319</v>
+      </c>
+      <c r="C128" t="s">
+        <v>323</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E128" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="6">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>320</v>
+      </c>
+      <c r="C129" t="s">
+        <v>323</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E129" s="6">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4C5A61-7CDD-5C42-B217-B8E89E241867}">
   <dimension ref="A1:H33"/>
   <sheetViews>
@@ -3555,11 +5644,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C420E2D7-0541-2D43-B6B6-B7173797BCCE}">
   <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -6567,11 +8656,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D53B1D-3347-674A-B153-17013D7E306E}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -7036,11 +9125,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24D4A93-D0E2-2949-A61E-1679DC88B601}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
